--- a/Polarization_Curves.xlsx
+++ b/Polarization_Curves.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prats\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adhwaryu\PycharmProjects\pythonProject\pythonProject1\Task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D4308B-1F9F-489E-A471-AA13546B9778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="A" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="A_1" localSheetId="0">Sheet1!$A$1:$G$192</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,64 +23,34 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{DEF8FAA3-9CFD-4ECB-8834-162FAC40E34E}" name="A1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Prats\Desktop\A.txt" comma="1">
-      <textFields count="7">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>x</t>
+    <t>X</t>
   </si>
   <si>
-    <t>20</t>
+    <t>Y20</t>
   </si>
   <si>
-    <t>30</t>
+    <t>Y30</t>
   </si>
   <si>
-    <t>40</t>
+    <t>Y40</t>
   </si>
   <si>
-    <t>50</t>
+    <t>Y50</t>
   </si>
   <si>
-    <t>60</t>
+    <t>Y60</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2465</t>
+    <t>Y70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,10 +82,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,10 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="A_1" connectionId="1" xr16:uid="{24C510D8-E668-479E-B36D-AA111A3A0018}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,21 +364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,4400 +396,4400 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>10.64</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1.5931200000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.56887</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1.5446299999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.5224</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>1.5001800000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>1.4799800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>10.65</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1.5931299999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1.5688800000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1.54464</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1.52241</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1.5001899999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>1.4799899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>10.66</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1.5931500000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1.5689</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1.5446500000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.5224200000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1.5002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>1.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>10.67</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1.5931599999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1.56891</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1.5446599999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1.52244</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>1.50021</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>1.48001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>10.68</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1.59318</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1.5689200000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1.54467</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1.5224500000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1.5002200000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>1.4800199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>10.69</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1.5931900000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1.5689299999999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1.5446800000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1.5224599999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1.50023</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>1.4800199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>53.53</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1.63957</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1.61026</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1.5832299999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1.5610900000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1.5346</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>1.51213</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>57.83</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1.6426099999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>1.6133200000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1.5862400000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1.56406</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1.5374000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>1.51488</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>62.13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1.6454500000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>1.61619</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>1.58908</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>1.5668599999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1.5400799999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>1.5175099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>62.14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1.6454599999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1.6162000000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1.5890899999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1.56687</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1.5400799999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>1.5175099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>66.45</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1.64812</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1.6189100000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1.5917600000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1.56951</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1.5426299999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>1.52003</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>70.75</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1.65063</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1.6214900000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1.59429</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1.5720000000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>1.5450600000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>1.52244</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>126.46</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>1.6759299999999999</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1.64794</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>1.62</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>1.5966899999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>1.56968</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>1.54644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>130.76</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1.6775599999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>1.64967</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>1.6217200000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>1.59823</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>1.5712200000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>1.54792</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>135.07</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>1.6791700000000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>1.6513800000000001</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1.6234200000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1.5997300000000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>1.5727199999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>1.54935</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>139.37</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1.68076</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1.65307</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1.6251100000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1.6012</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>1.5741700000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>1.5507500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>147.96</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>1.68387</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>1.6563600000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>1.62845</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1.60405</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>1.57697</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>1.55345</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>152.26</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1.6854</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>1.65798</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>1.6301099999999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.60544</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1.5783199999999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>1.5547599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>212.27</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>1.7062200000000001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1.6786099999999999</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>1.6511100000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>1.6228499999999999</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>1.59466</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>1.57073</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>216.57</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1.7077500000000001</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>1.67997</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1.6524300000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>1.62401</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>1.59575</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>1.5717699999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>220.88</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1.70929</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>1.6813100000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1.6537200000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>1.6251599999999999</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>1.59683</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>1.5728200000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>229.47</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1.7123900000000001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>1.6839599999999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1.6561999999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1.6274599999999999</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>1.59901</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>1.5748800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>238.06</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1.7155100000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>1.68655</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1.65859</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>1.62975</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>1.60121</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>1.57694</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>246.66</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1.7186300000000001</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>1.6891</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1.66089</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>1.6320300000000001</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>1.60344</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>1.5789899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>298.08</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1.7365200000000001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1.70381</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1.67371</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>1.64533</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>1.617</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>1.5913299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>306.67</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1.73925</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>1.7062299999999999</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1.6758200000000001</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>1.6474800000000001</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>1.6191899999999999</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>1.5933600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>315.27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1.7419</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>1.70865</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1.6779599999999999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1.64961</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>1.62134</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>1.59537</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>323.86</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1.74448</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>1.71106</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>1.6801299999999999</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>1.6516999999999999</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>1.6234299999999999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>1.59735</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>332.46</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1.7470000000000001</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1.7134799999999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>1.6823300000000001</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>1.65377</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>1.6254500000000001</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>1.5992999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>341.05</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1.7494799999999999</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1.7158899999999999</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>1.68455</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>1.65581</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>1.6274</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>1.60121</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>388.18</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1.76278</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1.7289699999999999</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>1.6968099999999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>1.6665399999999999</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>1.6371800000000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>1.61117</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>401.07</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1.7664800000000001</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>1.7324900000000001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>1.70007</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>1.6693499999999999</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>1.6397200000000001</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>1.6137699999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>409.66</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1.76898</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1.73481</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>1.7021999999999999</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>1.6712</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>1.6414</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>1.6154900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>422.55</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1.77274</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>1.7382599999999999</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>1.7053100000000001</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>1.6739200000000001</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>1.64394</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>1.6180399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>431.14</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1.7752699999999999</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1.7405299999999999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1.7073400000000001</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>1.67571</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>1.6456500000000001</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>1.6197299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>439.74</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1.7778</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>1.74278</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>1.70933</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>1.6774899999999999</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>1.6473899999999999</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>1.6214200000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>478.28</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1.78904</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>1.7525599999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1.7179500000000001</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>1.6853199999999999</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>1.6553599999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>1.62887</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>495.46</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1.79393</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>1.7567299999999999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1.72166</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>1.6888099999999999</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>1.65893</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>1.63208</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>508.35</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>1.79755</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>1.7597799999999999</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>1.7244200000000001</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>1.6914499999999999</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>1.66157</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>1.63443</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>521.23</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>1.80115</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>1.7627699999999999</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>1.72715</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>1.6941200000000001</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>1.6641600000000001</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>1.6367</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>529.83000000000004</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>1.8035300000000001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>1.7647600000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>1.7289600000000001</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>1.6959299999999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>1.6658500000000001</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>1.6381699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>538.41999999999996</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>1.8059000000000001</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>1.76674</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>1.73078</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>1.69777</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>1.66751</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>1.6395999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>572.66999999999996</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>1.8152999999999999</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>1.77475</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>1.7380500000000001</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>1.70516</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>1.67387</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>1.6449800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>589.85</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>1.8200099999999999</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>1.77895</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>1.74177</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>1.7088699999999999</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>1.6769799999999999</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>1.6476</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>602.74</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>1.8235300000000001</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>1.7822100000000001</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>1.7446200000000001</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>1.7116199999999999</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>1.6793100000000001</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>1.6495599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>615.63</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>1.8270299999999999</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>1.78555</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>1.7475000000000001</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>1.7143200000000001</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>1.6816500000000001</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>1.6515599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>628.52</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>1.8305</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>1.7889299999999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>1.7504299999999999</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>1.71698</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>1.6840299999999999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>1.6536200000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>641.4</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>1.8339399999999999</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>1.7923100000000001</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>1.75336</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>1.71959</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>1.68645</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>1.6557599999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>662.77</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>1.83954</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>1.7978499999999999</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>1.75823</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>1.72383</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>1.69052</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>1.6595200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>684.25</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>1.8450299999999999</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>1.8031900000000001</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>1.7630600000000001</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>1.728</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>1.6945699999999999</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>1.6635</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>701.43</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>1.84938</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>1.8072299999999999</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>1.76684</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>1.7312799999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>1.69773</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>1.66676</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>718.61</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>1.8537399999999999</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>1.81111</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>1.7705</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>1.7345200000000001</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>1.70076</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>1.67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>727.2</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>1.8559399999999999</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>1.8130200000000001</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>1.7722899999999999</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>1.73613</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>1.70221</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>1.6716</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>740.09</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>1.85927</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>1.81586</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>1.77495</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>1.7385299999999999</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>1.70431</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>1.67394</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>757.17</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>1.86378</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>1.8196099999999999</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>1.77841</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>1.74169</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>1.7069700000000001</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>1.67692</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>782.93</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>1.8708199999999999</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>1.82541</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>1.7835799999999999</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>1.7464200000000001</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>1.7108699999999999</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>1.68119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>800.11</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>1.8756299999999999</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>1.82944</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>1.78704</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>1.74956</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>1.7135</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>1.6839500000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>817.29</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>1.8804700000000001</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>1.8335600000000001</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>1.7905199999999999</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>1.75271</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>1.7162299999999999</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>1.68668</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>830.18</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>1.8841000000000001</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>1.8366800000000001</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>1.79315</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>1.7550699999999999</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>1.71837</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>1.6887300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>838.78</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>1.8865000000000001</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>1.83874</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>1.79491</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>1.75665</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>1.71987</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>1.6900999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>851.56</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>1.8900399999999999</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>1.84178</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>1.7975399999999999</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>1.75901</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>1.7221900000000001</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>1.6921600000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>877.33</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>1.8969800000000001</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>1.8476300000000001</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>1.8028299999999999</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>1.76376</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>1.72705</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>1.6963299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>898.8</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>1.9025799999999999</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>1.85216</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>1.80724</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>1.76772</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>1.7311300000000001</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>1.69977</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>915.98</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>1.9069400000000001</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>1.8556299999999999</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>1.81074</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>1.7708900000000001</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>1.7342900000000001</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>1.70244</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>928.87</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>1.9101300000000001</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>1.8582000000000001</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>1.8133699999999999</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>1.7732600000000001</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>1.7365600000000001</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>1.70438</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>941.76</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>1.91327</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>1.86077</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>1.81599</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>1.77563</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>1.7386999999999999</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>1.7062600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>945.95</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>1.91428</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>1.86161</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>1.8168500000000001</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>1.7764</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>1.7393700000000001</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>1.70686</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>976.01</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>1.9213499999999999</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>1.8678300000000001</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>1.823</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>1.7819199999999999</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>1.7440100000000001</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>1.71095</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>997.49</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>1.9263300000000001</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>1.8726</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>1.82744</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>1.7858799999999999</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>1.74726</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>1.7137899999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>1014.67</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>1.93035</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>1.8766</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>1.8310299999999999</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>1.7890699999999999</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>1.7499199999999999</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>1.7161</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>1031.8499999999999</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>1.9344300000000001</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>1.8807100000000001</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>1.83463</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>1.79227</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>1.7527200000000001</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>1.7184999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1040.3499999999999</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>1.9365000000000001</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>1.8827700000000001</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>1.8364100000000001</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>1.7938499999999999</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>1.75417</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>1.71974</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>1044.74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>1.93757</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>1.88384</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>1.8373200000000001</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>1.79467</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>1.7549300000000001</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>1.7203999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>1070.4100000000001</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>1.9440299999999999</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>1.89005</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>1.8425800000000001</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>1.7994300000000001</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>1.7596099999999999</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>1.7244999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>1096.17</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>1.95069</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>1.89615</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>1.8476399999999999</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>1.80416</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>1.7644899999999999</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>1.72885</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>1113.3499999999999</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>1.9551799999999999</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>1.90011</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>1.8508500000000001</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>1.80725</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>1.76773</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>1.7317499999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>1130.54</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>1.9596499999999999</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>1.90398</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>1.85398</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>1.81029</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>1.7708999999999999</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>1.7345600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>1134.74</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>1.9607300000000001</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>1.9049100000000001</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>1.8547400000000001</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>1.8110299999999999</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>1.7716499999999999</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>1.73522</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>1143.43</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>1.9629700000000001</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>1.90682</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>1.8563000000000001</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>1.8125500000000001</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>1.77318</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>1.7365699999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>1169.0899999999999</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>1.9695400000000001</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>1.9122699999999999</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>1.8609500000000001</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>1.8170299999999999</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>1.77752</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>1.7402599999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>1194.8599999999999</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>1.9761200000000001</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>1.9174899999999999</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>1.86582</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>1.8215699999999999</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
         <v>1.7816799999999999</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>1.7437199999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>1216.33</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>1.9816400000000001</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>1.92177</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>1.8701300000000001</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83">
         <v>1.8254300000000001</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83">
         <v>1.78505</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
         <v>1.7465599999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>1229.1300000000001</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>1.9849699999999999</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>1.9243300000000001</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>1.8727799999999999</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84">
         <v>1.82779</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84">
         <v>1.78705</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>1.7482899999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>1229.22</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>1.9850000000000001</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>1.92435</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>1.8728</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85">
         <v>1.8278000000000001</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85">
         <v>1.7870600000000001</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
         <v>1.7483</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>1246.4100000000001</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>1.98952</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>1.92787</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>1.87639</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86">
         <v>1.83101</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
         <v>1.7897400000000001</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86">
         <v>1.75071</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>1267.78</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>1.9951700000000001</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>1.9324699999999999</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>1.8808400000000001</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87">
         <v>1.8350299999999999</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87">
         <v>1.7930699999999999</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87">
         <v>1.7538899999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>1293.55</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>2.0018500000000001</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>1.9384399999999999</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>1.88602</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88">
         <v>1.8398000000000001</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88">
         <v>1.79711</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88">
         <v>1.75793</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>1315.02</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>2.00718</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>1.9436199999999999</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>1.89008</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89">
         <v>1.84361</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89">
         <v>1.8004899999999999</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89">
         <v>1.76139</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>1323.53</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>2.0092099999999999</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>1.94567</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>1.89164</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90">
         <v>1.8450599999999999</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90">
         <v>1.8018400000000001</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90">
         <v>1.7627600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>1332.2</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>2.0112299999999999</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>1.9477599999999999</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>1.8932100000000001</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91">
         <v>1.8465199999999999</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91">
         <v>1.80322</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91">
         <v>1.7641500000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>1349.38</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>2.01511</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>1.9518</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>1.8963000000000001</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92">
         <v>1.8493200000000001</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92">
         <v>1.80596</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92">
         <v>1.7668699999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>1362.17</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>2.0179299999999998</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>1.95469</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>1.8986000000000001</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93">
         <v>1.85137</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93">
         <v>1.8080099999999999</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93">
         <v>1.76884</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>1392.23</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>2.02454</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>1.9610099999999999</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>1.9041999999999999</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94">
         <v>1.8562099999999999</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94">
         <v>1.8127800000000001</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94">
         <v>1.77328</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>1413.71</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>2.02942</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>1.9653099999999999</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>1.90846</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95">
         <v>1.8597699999999999</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95">
         <v>1.81613</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95">
         <v>1.7763199999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>1422.21</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>2.0314299999999998</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>1.9670000000000001</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>1.9101900000000001</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96">
         <v>1.8612299999999999</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96">
         <v>1.8174300000000001</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96">
         <v>1.7775000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>1435.18</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>2.0346099999999998</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>1.96959</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>1.9128700000000001</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97">
         <v>1.8634900000000001</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97">
         <v>1.81938</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97">
         <v>1.7792699999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>1448.07</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>2.0378799999999999</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>1.97221</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>1.9155599999999999</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98">
         <v>1.86578</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98">
         <v>1.82128</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98">
         <v>1.78101</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>1460.86</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>2.0411999999999999</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>1.97489</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>1.9182300000000001</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99">
         <v>1.8680699999999999</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99">
         <v>1.8231200000000001</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99">
         <v>1.7827200000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>1490.92</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>2.0491000000000001</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>1.98153</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>1.9244000000000001</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100">
         <v>1.8734599999999999</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100">
         <v>1.8273699999999999</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100">
         <v>1.7867299999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>1516.6</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>2.0556700000000001</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>1.98742</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>1.9294199999999999</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101">
         <v>1.8779399999999999</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101">
         <v>1.83101</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101">
         <v>1.79023</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>1516.69</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>2.0556899999999998</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>1.9874400000000001</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>1.92944</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102">
         <v>1.87795</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102">
         <v>1.8310200000000001</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102">
         <v>1.7902400000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>1533.87</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>2.05986</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>1.9913799999999999</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>1.9326700000000001</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103">
         <v>1.88083</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103">
         <v>1.8335300000000001</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103">
         <v>1.7926500000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>1551.05</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>2.0638899999999998</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>1.99525</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>1.9358</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104">
         <v>1.8836299999999999</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104">
         <v>1.8361000000000001</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104">
         <v>1.79515</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>1559.54</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>2.0658500000000002</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>1.9971099999999999</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>1.9373199999999999</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105">
         <v>1.8849899999999999</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105">
         <v>1.8373999999999999</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105">
         <v>1.79643</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>1589.61</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>2.0728</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>2.0034299999999998</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>1.94258</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106">
         <v>1.8898299999999999</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106">
         <v>1.84209</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106">
         <v>1.8010999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1611</v>
+      </c>
+      <c r="B107">
         <v>2.07789</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>2.0077600000000002</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>1.94625</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107">
         <v>1.89337</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107">
         <v>1.84551</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107">
         <v>1.8045199999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>1615.37</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>2.07897</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>2.0086300000000001</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108">
         <v>1.9470000000000001</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108">
         <v>1.89412</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108">
         <v>1.8462099999999999</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108">
         <v>1.80522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>1636.85</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>2.0843699999999998</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>2.01294</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109">
         <v>1.95068</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109">
         <v>1.8978600000000001</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109">
         <v>1.8496900000000001</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109">
         <v>1.80863</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>1654.03</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>2.0888200000000001</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>2.0164399999999998</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>1.9536800000000001</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110">
         <v>1.9009199999999999</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110">
         <v>1.8524799999999999</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110">
         <v>1.81132</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>1658.23</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>2.0899100000000002</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>2.0173100000000002</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>1.9544299999999999</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111">
         <v>1.90168</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111">
         <v>1.85317</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111">
         <v>1.81196</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>1692.58</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>2.0988600000000002</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>2.0246200000000001</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>1.9607600000000001</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112">
         <v>1.9078299999999999</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112">
         <v>1.8587899999999999</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112">
         <v>1.8170500000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>1705.39</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>2.1021299999999998</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>2.0274000000000001</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>1.9632700000000001</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113">
         <v>1.9100699999999999</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113">
         <v>1.8608899999999999</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113">
         <v>1.8188800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>1718.35</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>2.1053799999999998</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>2.0302099999999998</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114">
         <v>1.9658899999999999</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114">
         <v>1.9123000000000001</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114">
         <v>1.8630199999999999</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114">
         <v>1.8207100000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>1735.54</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>2.1095700000000002</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>2.0339100000000001</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>1.9694400000000001</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115">
         <v>1.9151499999999999</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115">
         <v>1.86585</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115">
         <v>1.8230900000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>1752.62</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>2.1136300000000001</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>2.0375100000000002</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>1.9730099999999999</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116">
         <v>1.9178999999999999</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116">
         <v>1.8686499999999999</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116">
         <v>1.82545</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>1752.72</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>2.1136499999999998</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>2.0375299999999998</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>1.9730300000000001</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117">
         <v>1.9179200000000001</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117">
         <v>1.8686700000000001</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117">
         <v>1.8254600000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>1791.27</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>2.1224599999999998</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>2.0453600000000001</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>1.9809699999999999</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118">
         <v>1.9240999999999999</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118">
         <v>1.8748800000000001</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118">
         <v>1.83074</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>1799.79</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>2.1243500000000002</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>2.0470700000000002</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>1.98265</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119">
         <v>1.9255100000000001</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119">
         <v>1.8762099999999999</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119">
         <v>1.8319099999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>1817.04</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>2.1281400000000001</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>2.0505599999999999</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>1.98597</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120">
         <v>1.9284600000000001</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120">
         <v>1.87886</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
         <v>1.8342799999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>1838.52</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>2.1328499999999999</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>2.0549900000000001</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>1.98997</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121">
         <v>1.9323399999999999</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121">
         <v>1.88201</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121">
         <v>1.8372299999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>1851.31</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>2.1356700000000002</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>2.0577100000000002</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>1.9922899999999999</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122">
         <v>1.9347399999999999</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122">
         <v>1.88381</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122">
         <v>1.8389899999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>1855.7</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>2.1366499999999999</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>2.0586600000000002</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>1.99308</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123">
         <v>1.93557</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123">
         <v>1.8844099999999999</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123">
         <v>1.8395999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>1889.96</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>2.14452</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>2.0663399999999998</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>1.99915</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124">
         <v>1.94201</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124">
         <v>1.8890199999999999</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124">
         <v>1.8443499999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>1898.47</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>2.1465700000000001</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>2.0682900000000002</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>2.0006400000000002</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125">
         <v>1.94357</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125">
         <v>1.89015</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125">
         <v>1.8455299999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>1915.73</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>2.1508799999999999</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>2.0722499999999999</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126">
         <v>2.0036800000000001</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126">
         <v>1.9466399999999999</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126">
         <v>1.89249</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126">
         <v>1.8479099999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>1941.5</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>2.1575600000000001</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>2.0780599999999998</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>2.0083000000000002</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127">
         <v>1.9509300000000001</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127">
         <v>1.89615</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127">
         <v>1.8514299999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="1">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1950</v>
+      </c>
+      <c r="B128">
         <v>2.1597900000000001</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>2.0799300000000001</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>2.0098600000000002</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128">
         <v>1.9522900000000001</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128">
         <v>1.8974299999999999</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128">
         <v>1.8525799999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>1958.68</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>2.1620699999999999</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>2.0818099999999999</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>2.0114800000000002</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129">
         <v>1.9536500000000001</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129">
         <v>1.8987700000000001</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129">
         <v>1.8537399999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>1988.64</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>2.1697700000000002</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>2.08806</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>2.0173299999999998</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130">
         <v>1.9582299999999999</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130">
         <v>1.9036299999999999</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130">
         <v>1.8576999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>1992.86</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>2.1708099999999999</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>2.0889199999999999</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>2.0181900000000002</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131">
         <v>1.9588699999999999</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131">
         <v>1.9043399999999999</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131">
         <v>1.85826</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>2018.71</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
         <v>2.17699</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132">
         <v>2.0941299999999998</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>2.0236200000000002</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132">
         <v>1.9628000000000001</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132">
         <v>1.9087000000000001</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132">
         <v>1.86172</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>2040.19</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
         <v>2.1819500000000001</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133">
         <v>2.09842</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133">
         <v>2.0281899999999999</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133">
         <v>1.9661500000000001</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133">
         <v>1.91231</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133">
         <v>1.8647199999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>2048.6799999999998</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
         <v>2.18391</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134">
         <v>2.1001300000000001</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>2.0299700000000001</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134">
         <v>1.9675</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134">
         <v>1.9137200000000001</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134">
         <v>1.8659399999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>2061.66</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
         <v>2.1869100000000001</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135">
         <v>2.10276</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>2.0326200000000001</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135">
         <v>1.96959</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135">
         <v>1.9158500000000001</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135">
         <v>1.8678900000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>2087.2600000000002</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
         <v>2.1930299999999998</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136">
         <v>2.10799</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>2.0375200000000002</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136">
         <v>1.9738100000000001</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136">
         <v>1.9199600000000001</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136">
         <v>1.87195</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>2087.33</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
         <v>2.1930499999999999</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>2.1080000000000001</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>2.0375299999999998</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137">
         <v>1.97383</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137">
         <v>1.91997</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137">
         <v>1.8719600000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>2117.4</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
         <v>2.2007099999999999</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>2.1141800000000002</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>2.04257</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138">
         <v>1.9789600000000001</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138">
         <v>1.9246399999999999</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138">
         <v>1.8769800000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>2143.16</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
         <v>2.2074699999999998</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>2.1194700000000002</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>2.0465100000000001</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139">
         <v>1.98349</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139">
         <v>1.92848</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139">
         <v>1.8812800000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>2147.37</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140">
         <v>2.2085699999999999</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>2.12033</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>2.0471400000000002</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140">
         <v>1.98424</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140">
         <v>1.92909</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140">
         <v>1.8819699999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>2160.35</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
         <v>2.2119300000000002</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>2.1229800000000001</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>2.04908</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141">
         <v>1.98654</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141">
         <v>1.9309499999999999</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141">
         <v>1.88405</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>2181.65</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142">
         <v>2.2172700000000001</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>2.1273</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>2.0523199999999999</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142">
         <v>1.9903299999999999</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142">
         <v>1.9339599999999999</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142">
         <v>1.8873</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>2190.31</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
         <v>2.21936</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>2.12906</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>2.05369</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143">
         <v>1.99187</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143">
         <v>1.9351799999999999</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143">
         <v>1.8885700000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>2220.37</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
         <v>2.2262900000000001</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>2.1352000000000002</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>2.0587499999999999</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144">
         <v>1.9971399999999999</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144">
         <v>1.9394499999999999</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144">
         <v>1.8927400000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>2241.85</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145">
         <v>2.2310599999999998</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>2.1396500000000001</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145">
         <v>2.0626600000000002</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145">
         <v>2.00081</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145">
         <v>1.94262</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145">
         <v>1.89554</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>2246.0500000000002</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146">
         <v>2.2319800000000001</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146">
         <v>2.14053</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146">
         <v>2.0634399999999999</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146">
         <v>2.0015200000000002</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146">
         <v>1.9432499999999999</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146">
         <v>1.8960699999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>2263.33</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147">
         <v>2.23576</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147">
         <v>2.14419</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147">
         <v>2.0667599999999999</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147">
         <v>2.0043899999999999</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147">
         <v>1.9459200000000001</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147">
         <v>1.89819</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>2280.34</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148">
         <v>2.23949</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148">
         <v>2.14784</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148">
         <v>2.0701200000000002</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148">
         <v>2.0071599999999998</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148">
         <v>1.94861</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148">
         <v>1.9001999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="1">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2289</v>
+      </c>
+      <c r="B149">
         <v>2.2414100000000001</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149">
         <v>2.1497099999999998</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
         <v>2.0718700000000001</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149">
         <v>2.0085600000000001</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149">
         <v>1.9499899999999999</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149">
         <v>1.9012</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>2319.06</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
         <v>2.24824</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150">
         <v>2.1561900000000001</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150">
         <v>2.0780500000000002</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150">
         <v>2.0133100000000002</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150">
         <v>1.9547699999999999</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150">
         <v>1.9046400000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>2340.4499999999998</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
         <v>2.2532700000000001</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151">
         <v>2.16073</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151">
         <v>2.0824799999999999</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151">
         <v>2.0166200000000001</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151">
         <v>1.95811</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151">
         <v>1.90713</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>2344.83</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
         <v>2.2543199999999999</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152">
         <v>2.1616499999999998</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152">
         <v>2.08338</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152">
         <v>2.0173000000000001</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152">
         <v>1.95878</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152">
         <v>1.9076500000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>2366.31</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153">
         <v>2.2595900000000002</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153">
         <v>2.1661199999999998</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153">
         <v>2.08779</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153">
         <v>2.0206200000000001</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153">
         <v>1.9619899999999999</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153">
         <v>1.91031</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>2374.73</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
         <v>2.2617099999999999</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154">
         <v>2.1678500000000001</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154">
         <v>2.0894900000000001</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154">
         <v>2.0219299999999998</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154">
         <v>1.9632099999999999</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154">
         <v>1.9114100000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>2387.6799999999998</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
         <v>2.2650399999999999</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155">
         <v>2.17049</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155">
         <v>2.0920700000000001</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155">
         <v>2.0239600000000002</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155">
         <v>1.9650700000000001</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155">
         <v>1.9131499999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>2422.04</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156">
         <v>2.2740200000000002</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156">
         <v>2.17747</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156">
         <v>2.0986400000000001</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156">
         <v>2.0294699999999999</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156">
         <v>1.96991</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156">
         <v>1.9180299999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>2439.14</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157">
         <v>2.2784599999999999</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157">
         <v>2.18093</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157">
         <v>2.1017899999999998</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157">
         <v>2.0323199999999999</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157">
         <v>1.9722999999999999</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157">
         <v>1.9205700000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>2443.52</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158">
         <v>2.2795800000000002</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158">
         <v>2.1818300000000002</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158">
         <v>2.1025900000000002</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158">
         <v>2.0330699999999999</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158">
         <v>1.97292</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158">
         <v>1.9212199999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2465</v>
+      </c>
+      <c r="B159">
         <v>2.2849499999999998</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159">
         <v>2.1861999999999999</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159">
         <v>2.1064600000000002</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159">
         <v>2.0367700000000002</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159">
         <v>1.9759800000000001</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159">
         <v>1.92445</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>2469.12</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160">
         <v>2.2859500000000001</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160">
         <v>2.1870400000000001</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160">
         <v>2.1071900000000001</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160">
         <v>2.03748</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160">
         <v>1.97658</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160">
         <v>1.9250700000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>2486.37</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161">
         <v>2.2900200000000002</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161">
         <v>2.1905700000000001</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161">
         <v>2.1102500000000002</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161">
         <v>2.0404800000000001</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161">
         <v>1.9791000000000001</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161">
         <v>1.9276599999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>2516.44</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162">
         <v>2.2968099999999998</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162">
         <v>2.1967400000000001</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162">
         <v>2.1155599999999999</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162">
         <v>2.0456300000000001</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162">
         <v>1.98366</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162">
         <v>1.9321600000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>2537.8200000000002</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163">
         <v>2.30152</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163">
         <v>2.20113</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163">
         <v>2.1193399999999998</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163">
         <v>2.0491700000000002</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163">
         <v>1.98705</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163">
         <v>1.93536</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>2537.92</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
         <v>2.3015400000000001</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164">
         <v>2.2011500000000002</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164">
         <v>2.1193499999999998</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164">
         <v>2.0491899999999998</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164">
         <v>1.98706</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164">
         <v>1.9353800000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>2559.4</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165">
         <v>2.3062900000000002</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165">
         <v>2.2055699999999998</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165">
         <v>2.1231399999999998</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165">
         <v>2.0526800000000001</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165">
         <v>1.9905900000000001</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165">
         <v>1.9386000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>2567.81</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166">
         <v>2.3081700000000001</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166">
         <v>2.2073</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166">
         <v>2.1246200000000002</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166">
         <v>2.0540500000000002</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166">
         <v>1.9919899999999999</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166">
         <v>1.9398599999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>2589.35</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167">
         <v>2.3130999999999999</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167">
         <v>2.2117200000000001</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167">
         <v>2.1284299999999998</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167">
         <v>2.0575399999999999</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167">
         <v>1.99559</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167">
         <v>1.9430799999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>2615.13</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168">
         <v>2.31915</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168">
         <v>2.21699</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168">
         <v>2.1330200000000001</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168">
         <v>2.0617899999999998</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168">
         <v>1.99983</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168">
         <v>1.94685</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>2636.51</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169">
         <v>2.3242500000000001</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169">
         <v>2.2213400000000001</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169">
         <v>2.1368399999999999</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169">
         <v>2.06542</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169">
         <v>2.0032100000000002</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169">
         <v>1.9498599999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>2636.61</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170">
         <v>2.3242699999999998</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170">
         <v>2.2213599999999998</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170">
         <v>2.13686</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170">
         <v>2.0654300000000001</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170">
         <v>2.0032199999999998</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170">
         <v>1.94987</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>2658.09</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171">
         <v>2.3294100000000002</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171">
         <v>2.2256999999999998</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171">
         <v>2.14073</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171">
         <v>2.06914</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171">
         <v>2.00644</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171">
         <v>1.9527399999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>2662.2</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
         <v>2.33039</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172">
         <v>2.2265299999999999</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172">
         <v>2.14147</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172">
         <v>2.0698599999999998</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172">
         <v>2.0070399999999999</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G172">
         <v>1.95326</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>2679.45</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173">
         <v>2.3344900000000002</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173">
         <v>2.2300300000000002</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173">
         <v>2.14459</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173">
         <v>2.0728399999999998</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173">
         <v>2.0095000000000001</v>
       </c>
-      <c r="G173" s="1">
+      <c r="G173">
         <v>1.9554100000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>2709.52</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174">
         <v>2.3415900000000001</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174">
         <v>2.23617</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174">
         <v>2.1500599999999999</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174">
         <v>2.07795</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174">
         <v>2.0137200000000002</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174">
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>2735.19</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175">
         <v>2.34761</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175">
         <v>2.2415400000000001</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175">
         <v>2.1547700000000001</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175">
         <v>2.0821700000000001</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175">
         <v>2.01735</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175">
         <v>1.9621</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>2735.3</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
         <v>2.3476400000000002</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176">
         <v>2.2415600000000002</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176">
         <v>2.1547900000000002</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176">
         <v>2.0821900000000002</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176">
         <v>2.0173700000000001</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176">
         <v>1.96211</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>2756.6</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
         <v>2.3526099999999999</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177">
         <v>2.2461199999999999</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177">
         <v>2.1587399999999999</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177">
         <v>2.0856300000000001</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177">
         <v>2.0204900000000001</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G177">
         <v>1.9648399999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>2756.78</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
         <v>2.3526500000000001</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178">
         <v>2.2461600000000002</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178">
         <v>2.1587700000000001</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178">
         <v>2.0856599999999998</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178">
         <v>2.0205099999999998</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G178">
         <v>1.9648600000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>2778.14</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179">
         <v>2.35764</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179">
         <v>2.2507899999999998</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179">
         <v>2.1627800000000001</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179">
         <v>2.0891299999999999</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179">
         <v>2.02372</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G179">
         <v>1.9678100000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>2808.21</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180">
         <v>2.3646699999999998</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180">
         <v>2.25726</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180">
         <v>2.1684999999999999</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180">
         <v>2.0941100000000001</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180">
         <v>2.0282800000000001</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G180">
         <v>1.97218</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>2829.59</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
         <v>2.36972</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181">
         <v>2.2617400000000001</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181">
         <v>2.1726299999999998</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181">
         <v>2.0977999999999999</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181">
         <v>2.0314899999999998</v>
       </c>
-      <c r="G181" s="1">
+      <c r="G181">
         <v>1.97532</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>2829.69</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
         <v>2.3697400000000002</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182">
         <v>2.2617600000000002</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182">
         <v>2.17265</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182">
         <v>2.09781</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182">
         <v>2.0315099999999999</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G182">
         <v>1.9753400000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>2850.99</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183">
         <v>2.3748300000000002</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183">
         <v>2.2660499999999999</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183">
         <v>2.1767799999999999</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183">
         <v>2.10154</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183">
         <v>2.03464</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G183">
         <v>1.97838</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>2855.47</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184">
         <v>2.3759100000000002</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184">
         <v>2.2669299999999999</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184">
         <v>2.1776399999999998</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184">
         <v>2.1023200000000002</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184">
         <v>2.0352899999999998</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184">
         <v>1.9790000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>2872.54</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185">
         <v>2.3800599999999998</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185">
         <v>2.2702399999999998</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185">
         <v>2.1809599999999998</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185">
         <v>2.10528</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185">
         <v>2.03775</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185">
         <v>1.98129</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>2902.61</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186">
         <v>2.3874599999999999</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186">
         <v>2.2759299999999998</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186">
         <v>2.1867700000000001</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186">
         <v>2.1102699999999999</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186">
         <v>2.0420199999999999</v>
       </c>
-      <c r="G186" s="1">
+      <c r="G186">
         <v>1.9850699999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>2923.98</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187">
         <v>2.3927800000000001</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187">
         <v>2.2799200000000002</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187">
         <v>2.19089</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187">
         <v>2.1135700000000002</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187">
         <v>2.0450300000000001</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187">
         <v>1.9876199999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>2928.38</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188">
         <v>2.3938799999999998</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188">
         <v>2.2807400000000002</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188">
         <v>2.1917300000000002</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188">
         <v>2.1142300000000001</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188">
         <v>2.0456500000000002</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188">
         <v>1.98813</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>2941.1</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189">
         <v>2.3970500000000001</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189">
         <v>2.2831100000000002</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189">
         <v>2.1941799999999998</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189">
         <v>2.1160800000000002</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189">
         <v>2.0474399999999999</v>
       </c>
-      <c r="G189" s="1">
+      <c r="G189">
         <v>1.9896100000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>2954.16</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190">
         <v>2.4003100000000002</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190">
         <v>2.2855599999999998</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190">
         <v>2.1966800000000002</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190">
         <v>2.1179399999999999</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190">
         <v>2.04928</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190">
         <v>1.99112</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>2966.93</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191">
         <v>2.4035000000000002</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191">
         <v>2.2879700000000001</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191">
         <v>2.1991399999999999</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191">
         <v>2.11972</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191">
         <v>2.0510899999999999</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191">
         <v>1.9925999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>3001.3</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192">
         <v>2.4119999999999999</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192">
         <v>2.2946499999999999</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192">
         <v>2.20574</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192">
         <v>2.1244200000000002</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192">
         <v>2.0560100000000001</v>
       </c>
-      <c r="G192" s="1">
+      <c r="G192">
         <v>1.99665</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>